--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8024608F-BC15-439E-8F2D-86A6B1DF9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B7A12-77CE-49C6-8237-D5595B8353CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>RKFox</t>
   </si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>posicao</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +453,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -457,30 +463,39 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1800000000</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>800000000</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1800000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -490,8 +505,16 @@
       <c r="C4">
         <v>80000000</v>
       </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
+      <sortCondition descending="1" ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B7A12-77CE-49C6-8237-D5595B8353CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8E44F-1B48-4206-AF12-150DA6206C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RKFox</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>posicao</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/HANTAROGAMER/games</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/GUERDE/games</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/RKFox/games</t>
   </si>
 </sst>
 </file>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +465,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -466,36 +478,45 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1800000000</v>
+        <v>800000000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>800000000</v>
+        <v>650000000</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -508,11 +529,14 @@
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
-      <sortCondition descending="1" ref="C1"/>
+  <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E4">
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8E44F-1B48-4206-AF12-150DA6206C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123DB375-453E-4BF6-8634-4086C18904D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>RKFox</t>
   </si>
@@ -81,19 +81,87 @@
   </si>
   <si>
     <t>https://rollercoin.com/p/RKFox/games</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/jukinha</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/lvx9ene8</t>
+  </si>
+  <si>
+    <t>Zonorato</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/Pesaac</t>
+  </si>
+  <si>
+    <t>Renan</t>
+  </si>
+  <si>
+    <t>Pedro Ferreira</t>
+  </si>
+  <si>
+    <t>61e6f8aedcdbc50011a301af</t>
+  </si>
+  <si>
+    <t>663af1422c820df814115447</t>
+  </si>
+  <si>
+    <t>60d5e41a8185d30018933209</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/sccp_gu</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/thekrk420</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Orias Régis</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/Regis</t>
+  </si>
+  <si>
+    <t>Rogério Imai</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/MitoBR</t>
+  </si>
+  <si>
+    <t>607ba063fef5b1001a278047</t>
+  </si>
+  <si>
+    <t>625461969628d1006fc9ea79</t>
+  </si>
+  <si>
+    <t>66281a5897a97ed50ab05355</t>
+  </si>
+  <si>
+    <t>6053d6d93bc68a306598cc8a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,9 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,19 +524,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -482,32 +553,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>800000000</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2694165789</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>650000000</v>
+      <c r="C3" s="2">
+        <v>2368709147</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -516,29 +587,157 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>80000000</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1181980289</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>249340024</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>221052128</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>108393949</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>72056281</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>65024695</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>54438477</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>52055137</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E4">
-      <sortCondition ref="D1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+      <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{575C42A1-38D8-4302-83A0-86ABCE01846A}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123DB375-453E-4BF6-8634-4086C18904D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869B6E75-87B8-4DA0-B74B-2F9367EEBF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,7 +561,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="2">
-        <v>2694165789</v>
+        <v>2670005915.8315001</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>2368709147</v>
+        <v>2339240926</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>1181980289</v>
+        <v>1138443110</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -612,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>249340024</v>
+        <v>237165911</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>221052128</v>
+        <v>211681494</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -646,7 +646,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>108393949</v>
+        <v>100111524</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>72056281</v>
+        <v>63548766</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -680,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>65024695</v>
+        <v>56996640</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -697,7 +697,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="2">
-        <v>54438477</v>
+        <v>45142346</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>52055137</v>
+        <v>51573653</v>
       </c>
       <c r="D11">
         <v>10</v>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsonrcc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869B6E75-87B8-4DA0-B74B-2F9367EEBF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922F0EF-EEF4-490C-9311-0AE6A81D59E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>RKFox</t>
   </si>
@@ -144,6 +144,60 @@
   </si>
   <si>
     <t>6053d6d93bc68a306598cc8a</t>
+  </si>
+  <si>
+    <t>Dyego</t>
+  </si>
+  <si>
+    <t>Fábio HK</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/larjauxv</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/ricardomann</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/Dyegolimax</t>
+  </si>
+  <si>
+    <t>637c24d32bc15392f36cb7d3</t>
+  </si>
+  <si>
+    <t>65d7a4bb18dbdd3be41d49af</t>
+  </si>
+  <si>
+    <t>663590bd491ae03c93bf4900</t>
+  </si>
+  <si>
+    <t>65e09a04a3eedf92402bc595</t>
+  </si>
+  <si>
+    <t>Hugo Matos</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/BabyTux69</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/kc30bi28</t>
+  </si>
+  <si>
+    <t>Lil Taro</t>
+  </si>
+  <si>
+    <t>61f825f623ed52005e866ed3</t>
+  </si>
+  <si>
+    <t>Jonathan Soares</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/lyamecmn</t>
+  </si>
+  <si>
+    <t>6689b328679fcd0d46f06b1b</t>
   </si>
 </sst>
 </file>
@@ -524,15 +578,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,156 +642,265 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
-        <v>1138443110</v>
+        <v>2118954027</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
+      <c r="A5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>237165911</v>
+        <v>1138443110</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
-        <v>211681494</v>
+        <v>448866366</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
-        <v>100111524</v>
+        <v>252660993</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>63548766</v>
+        <v>237165911</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>56996640</v>
+        <v>211681494</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>45142346</v>
+        <v>100111524</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>51573653</v>
+        <v>63548766</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2">
+        <v>59653070</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>56996640</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
+        <v>51573653</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45142346</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21145194</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3282905</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{575C42A1-38D8-4302-83A0-86ABCE01846A}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{FBA49778-F2E1-4E06-A86F-62981848A032}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{2F1D4426-1026-4E2A-9E67-BD88274F6AF3}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{E68F23ED-F8C9-4F1E-BE3A-80BDAAE822D1}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{9D84939E-A030-4BD5-A186-B88692540CC4}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{1EFE5101-DC7C-4042-9438-D3F7647201A8}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{5F96A565-C437-43DF-837E-41235AEC3776}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsonrcc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922F0EF-EEF4-490C-9311-0AE6A81D59E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFBD08-1524-41CC-8D72-D1AE3F49C579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="4755" yWindow="3390" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>RKFox</t>
   </si>
@@ -198,13 +198,103 @@
   </si>
   <si>
     <t>6689b328679fcd0d46f06b1b</t>
+  </si>
+  <si>
+    <t>614b9f90608bdd002791f31c</t>
+  </si>
+  <si>
+    <t>Terráqueo</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/terraqueo</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/jzlfzveq</t>
+  </si>
+  <si>
+    <t>Lion Fera</t>
+  </si>
+  <si>
+    <t>5b456fbf4c0cfe0013fec57e</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/lkr7fomr</t>
+  </si>
+  <si>
+    <t>64c7fd88d5e874c8f5a00a07</t>
+  </si>
+  <si>
+    <t>Matheus75K</t>
+  </si>
+  <si>
+    <t>ZeraTAL</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/ZeraTAL</t>
+  </si>
+  <si>
+    <t>623dfbf9584b270011716c7d</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/kzugpfwl</t>
+  </si>
+  <si>
+    <t>BillyTKD</t>
+  </si>
+  <si>
+    <t>62117ac581c6a00035d1e7f5</t>
+  </si>
+  <si>
+    <t>Wallace Jack</t>
+  </si>
+  <si>
+    <t>655d47c4196526c7c27a44b0</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/Walljack</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/JHOWBR21</t>
+  </si>
+  <si>
+    <t>Jhow</t>
+  </si>
+  <si>
+    <t>6644084c20155f520d9877cb</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/kl6yb7ip</t>
+  </si>
+  <si>
+    <t>LeoDGyn</t>
+  </si>
+  <si>
+    <t>602ac6c9221f0d0036212c71</t>
+  </si>
+  <si>
+    <t>Gon Sotans</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/lithrrgz</t>
+  </si>
+  <si>
+    <t>6487ab9f2b120de602eabfb1</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/kkxb6fy2</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>6021e1404cf33e00111c2f1c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +306,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,17 +333,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,15 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -659,248 +763,428 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
-        <v>1138443110</v>
+        <v>1647127516</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
+      <c r="E5" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2">
-        <v>448866366</v>
+        <v>1209788980</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
+      <c r="E6" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
+      <c r="A7" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>252660993</v>
+        <v>1138443110</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="2">
-        <v>237165911</v>
+        <v>643147685</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
+      <c r="E8" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>6</v>
+      <c r="A9" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
-        <v>211681494</v>
+        <v>607818423</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2">
-        <v>100111524</v>
+        <v>448866366</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2">
-        <v>63548766</v>
+        <v>290757765</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
-        <v>59653070</v>
+        <v>252660993</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>56996640</v>
+        <v>237165911</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
+      <c r="A14" t="s">
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>51573653</v>
+        <v>211681494</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2">
-        <v>45142346</v>
+        <v>115521682</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>28</v>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C16" s="2">
-        <v>21145194</v>
+        <v>100338928</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>47</v>
+      <c r="E16" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>3282905</v>
+        <v>100111524</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>63548766</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>59653070</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>56996640</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>51573653</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2">
+        <v>51019914</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45142346</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2">
+        <v>29984383</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2">
+        <v>28041177</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2">
+        <v>21145194</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3282905</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
-    <hyperlink ref="E10" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
+    <hyperlink ref="E20" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
+    <hyperlink ref="E21" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
+    <hyperlink ref="E23" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{575C42A1-38D8-4302-83A0-86ABCE01846A}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{FBA49778-F2E1-4E06-A86F-62981848A032}"/>
-    <hyperlink ref="E7" r:id="rId9" xr:uid="{2F1D4426-1026-4E2A-9E67-BD88274F6AF3}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{E68F23ED-F8C9-4F1E-BE3A-80BDAAE822D1}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{FBA49778-F2E1-4E06-A86F-62981848A032}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{2F1D4426-1026-4E2A-9E67-BD88274F6AF3}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{E68F23ED-F8C9-4F1E-BE3A-80BDAAE822D1}"/>
     <hyperlink ref="E4" r:id="rId11" xr:uid="{9D84939E-A030-4BD5-A186-B88692540CC4}"/>
-    <hyperlink ref="E16" r:id="rId12" xr:uid="{1EFE5101-DC7C-4042-9438-D3F7647201A8}"/>
-    <hyperlink ref="E17" r:id="rId13" xr:uid="{5F96A565-C437-43DF-837E-41235AEC3776}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{1EFE5101-DC7C-4042-9438-D3F7647201A8}"/>
+    <hyperlink ref="E27" r:id="rId13" xr:uid="{5F96A565-C437-43DF-837E-41235AEC3776}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{A8E21BEE-8020-4B11-A011-E617CEB30C0C}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{FBCFAC93-3D00-4583-AF62-25FD81E855E7}"/>
+    <hyperlink ref="E16" r:id="rId16" xr:uid="{FF6FC1CF-97F1-4192-A0D4-F40264CF7B09}"/>
+    <hyperlink ref="E6" r:id="rId17" xr:uid="{E2BF2405-CDEE-4E9F-84EC-51364C1E6B90}"/>
+    <hyperlink ref="E5" r:id="rId18" xr:uid="{83193373-F91A-4255-969C-F7B114D497A5}"/>
+    <hyperlink ref="E8" r:id="rId19" xr:uid="{9011B9D7-B468-4F84-85A5-DEB5B4F6E17A}"/>
+    <hyperlink ref="E11" r:id="rId20" xr:uid="{F65ABEA9-7C43-40FB-A944-B5E597E270B2}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{23F7F931-CEB3-4E37-BFF8-C6F7E8340A87}"/>
+    <hyperlink ref="E25" r:id="rId22" xr:uid="{16B9406D-0A2B-4F03-AF96-53E85827ED04}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{C486A022-CC51-4AEF-8564-3B9A9294D204}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsonrcc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFBD08-1524-41CC-8D72-D1AE3F49C579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB85DC-1DF2-4CFB-A81E-FEFE595FEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="3390" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>RKFox</t>
   </si>
@@ -288,13 +288,22 @@
   </si>
   <si>
     <t>6021e1404cf33e00111c2f1c</t>
+  </si>
+  <si>
+    <t>PUDIMZINHO</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/lg9p91px</t>
+  </si>
+  <si>
+    <t>6432faab10e5731e1f00ad18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,14 +315,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,23 +334,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,7 +773,7 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -792,7 +790,7 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -826,7 +824,7 @@
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -843,7 +841,7 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -877,7 +875,7 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -933,258 +931,276 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C15" s="2">
-        <v>115521682</v>
+        <v>138229255</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
+      <c r="E15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="2">
-        <v>100338928</v>
+        <v>115521682</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>59</v>
+      <c r="E16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="2">
-        <v>100111524</v>
+        <v>100338928</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>63548766</v>
+        <v>100111524</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>59653070</v>
+        <v>63548766</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
-        <v>56996640</v>
+        <v>59653070</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>51573653</v>
+        <v>56996640</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>51019914</v>
+        <v>51573653</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>74</v>
+      <c r="E22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C23" s="2">
-        <v>45142346</v>
+        <v>51019914</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>82</v>
+      <c r="A24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
-        <v>29984383</v>
+        <v>45142346</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>80</v>
+      <c r="E24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>79</v>
+      <c r="A25" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2">
-        <v>28041177</v>
+        <v>29984383</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>78</v>
+      <c r="E25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2">
-        <v>21145194</v>
+        <v>28041177</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
-        <v>3282905</v>
+        <v>21145194</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3282905</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E13" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
-    <hyperlink ref="E18" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
-    <hyperlink ref="E20" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
-    <hyperlink ref="E21" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
-    <hyperlink ref="E23" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
+    <hyperlink ref="E21" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
+    <hyperlink ref="E22" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
+    <hyperlink ref="E24" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{575C42A1-38D8-4302-83A0-86ABCE01846A}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{FBA49778-F2E1-4E06-A86F-62981848A032}"/>
     <hyperlink ref="E12" r:id="rId9" xr:uid="{2F1D4426-1026-4E2A-9E67-BD88274F6AF3}"/>
-    <hyperlink ref="E19" r:id="rId10" xr:uid="{E68F23ED-F8C9-4F1E-BE3A-80BDAAE822D1}"/>
+    <hyperlink ref="E20" r:id="rId10" xr:uid="{E68F23ED-F8C9-4F1E-BE3A-80BDAAE822D1}"/>
     <hyperlink ref="E4" r:id="rId11" xr:uid="{9D84939E-A030-4BD5-A186-B88692540CC4}"/>
-    <hyperlink ref="E26" r:id="rId12" xr:uid="{1EFE5101-DC7C-4042-9438-D3F7647201A8}"/>
-    <hyperlink ref="E27" r:id="rId13" xr:uid="{5F96A565-C437-43DF-837E-41235AEC3776}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{A8E21BEE-8020-4B11-A011-E617CEB30C0C}"/>
+    <hyperlink ref="E27" r:id="rId12" xr:uid="{1EFE5101-DC7C-4042-9438-D3F7647201A8}"/>
+    <hyperlink ref="E28" r:id="rId13" xr:uid="{5F96A565-C437-43DF-837E-41235AEC3776}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{A8E21BEE-8020-4B11-A011-E617CEB30C0C}"/>
     <hyperlink ref="E9" r:id="rId15" xr:uid="{FBCFAC93-3D00-4583-AF62-25FD81E855E7}"/>
-    <hyperlink ref="E16" r:id="rId16" xr:uid="{FF6FC1CF-97F1-4192-A0D4-F40264CF7B09}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{FF6FC1CF-97F1-4192-A0D4-F40264CF7B09}"/>
     <hyperlink ref="E6" r:id="rId17" xr:uid="{E2BF2405-CDEE-4E9F-84EC-51364C1E6B90}"/>
     <hyperlink ref="E5" r:id="rId18" xr:uid="{83193373-F91A-4255-969C-F7B114D497A5}"/>
     <hyperlink ref="E8" r:id="rId19" xr:uid="{9011B9D7-B468-4F84-85A5-DEB5B4F6E17A}"/>
     <hyperlink ref="E11" r:id="rId20" xr:uid="{F65ABEA9-7C43-40FB-A944-B5E597E270B2}"/>
-    <hyperlink ref="E22" r:id="rId21" xr:uid="{23F7F931-CEB3-4E37-BFF8-C6F7E8340A87}"/>
-    <hyperlink ref="E25" r:id="rId22" xr:uid="{16B9406D-0A2B-4F03-AF96-53E85827ED04}"/>
-    <hyperlink ref="E24" r:id="rId23" xr:uid="{C486A022-CC51-4AEF-8564-3B9A9294D204}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{23F7F931-CEB3-4E37-BFF8-C6F7E8340A87}"/>
+    <hyperlink ref="E26" r:id="rId22" xr:uid="{16B9406D-0A2B-4F03-AF96-53E85827ED04}"/>
+    <hyperlink ref="E25" r:id="rId23" xr:uid="{C486A022-CC51-4AEF-8564-3B9A9294D204}"/>
+    <hyperlink ref="E15" r:id="rId24" xr:uid="{2FC3AC71-41BF-4D06-A20C-0E9E9A8991E2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsonrcc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB85DC-1DF2-4CFB-A81E-FEFE595FEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8616DBDD-E89B-4BAA-9784-380A59C4C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>RKFox</t>
   </si>
@@ -297,13 +297,40 @@
   </si>
   <si>
     <t>6432faab10e5731e1f00ad18</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/YesoGengo</t>
+  </si>
+  <si>
+    <t>Yarey</t>
+  </si>
+  <si>
+    <t>6095fca68a19d000196923bf</t>
+  </si>
+  <si>
+    <t>Rafael Braga</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/ksc25irv</t>
+  </si>
+  <si>
+    <t>6117fe5efc41af003a67eb8f</t>
+  </si>
+  <si>
+    <t>Julio Barboza</t>
+  </si>
+  <si>
+    <t>https://rollercoin.com/p/SidFillips</t>
+  </si>
+  <si>
+    <t>6116f40168427b0029d5580f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +342,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,10 +369,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,8 +382,10 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -813,394 +851,448 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="2">
-        <v>643147685</v>
+        <v>972672480</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>70</v>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="2">
-        <v>607818423</v>
+        <v>643147685</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2">
-        <v>448866366</v>
+        <v>607818423</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
-        <v>290757765</v>
+        <v>448866366</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2">
-        <v>252660993</v>
+        <v>290757765</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
-        <v>237165911</v>
+        <v>252660993</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>6</v>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>211681494</v>
+        <v>237165911</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>138229255</v>
+        <v>211681494</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C16" s="2">
-        <v>115521682</v>
+        <v>138229255</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="2">
-        <v>100338928</v>
+        <v>115521682</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2">
-        <v>100111524</v>
+        <v>110472005</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>25</v>
+      <c r="E18" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="2">
-        <v>63548766</v>
+        <v>100338928</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>59653070</v>
+        <v>100111524</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2">
-        <v>56996640</v>
+        <v>63548766</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
-        <v>51573653</v>
+        <v>59653070</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>51019914</v>
+        <v>56996640</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>45142346</v>
+        <v>51573653</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
+      <c r="A25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C25" s="2">
-        <v>29984383</v>
+        <v>51019914</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>28041177</v>
+        <v>45142346</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>49</v>
+      <c r="A27" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2">
-        <v>21145194</v>
+        <v>29984383</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2">
-        <v>3282905</v>
+        <v>28041177</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2">
+        <v>21145194</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2">
+        <v>7756768</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3282905</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
-    <hyperlink ref="E21" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
-    <hyperlink ref="E22" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
-    <hyperlink ref="E24" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
+    <hyperlink ref="E24" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
+    <hyperlink ref="E20" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
+    <hyperlink ref="E26" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{575C42A1-38D8-4302-83A0-86ABCE01846A}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{FBA49778-F2E1-4E06-A86F-62981848A032}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{2F1D4426-1026-4E2A-9E67-BD88274F6AF3}"/>
-    <hyperlink ref="E20" r:id="rId10" xr:uid="{E68F23ED-F8C9-4F1E-BE3A-80BDAAE822D1}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{FBA49778-F2E1-4E06-A86F-62981848A032}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{2F1D4426-1026-4E2A-9E67-BD88274F6AF3}"/>
+    <hyperlink ref="E22" r:id="rId10" xr:uid="{E68F23ED-F8C9-4F1E-BE3A-80BDAAE822D1}"/>
     <hyperlink ref="E4" r:id="rId11" xr:uid="{9D84939E-A030-4BD5-A186-B88692540CC4}"/>
-    <hyperlink ref="E27" r:id="rId12" xr:uid="{1EFE5101-DC7C-4042-9438-D3F7647201A8}"/>
-    <hyperlink ref="E28" r:id="rId13" xr:uid="{5F96A565-C437-43DF-837E-41235AEC3776}"/>
-    <hyperlink ref="E16" r:id="rId14" xr:uid="{A8E21BEE-8020-4B11-A011-E617CEB30C0C}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{FBCFAC93-3D00-4583-AF62-25FD81E855E7}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{FF6FC1CF-97F1-4192-A0D4-F40264CF7B09}"/>
+    <hyperlink ref="E29" r:id="rId12" xr:uid="{1EFE5101-DC7C-4042-9438-D3F7647201A8}"/>
+    <hyperlink ref="E31" r:id="rId13" xr:uid="{5F96A565-C437-43DF-837E-41235AEC3776}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{A8E21BEE-8020-4B11-A011-E617CEB30C0C}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{FBCFAC93-3D00-4583-AF62-25FD81E855E7}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{FF6FC1CF-97F1-4192-A0D4-F40264CF7B09}"/>
     <hyperlink ref="E6" r:id="rId17" xr:uid="{E2BF2405-CDEE-4E9F-84EC-51364C1E6B90}"/>
     <hyperlink ref="E5" r:id="rId18" xr:uid="{83193373-F91A-4255-969C-F7B114D497A5}"/>
-    <hyperlink ref="E8" r:id="rId19" xr:uid="{9011B9D7-B468-4F84-85A5-DEB5B4F6E17A}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{F65ABEA9-7C43-40FB-A944-B5E597E270B2}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{23F7F931-CEB3-4E37-BFF8-C6F7E8340A87}"/>
-    <hyperlink ref="E26" r:id="rId22" xr:uid="{16B9406D-0A2B-4F03-AF96-53E85827ED04}"/>
-    <hyperlink ref="E25" r:id="rId23" xr:uid="{C486A022-CC51-4AEF-8564-3B9A9294D204}"/>
-    <hyperlink ref="E15" r:id="rId24" xr:uid="{2FC3AC71-41BF-4D06-A20C-0E9E9A8991E2}"/>
+    <hyperlink ref="E9" r:id="rId19" xr:uid="{9011B9D7-B468-4F84-85A5-DEB5B4F6E17A}"/>
+    <hyperlink ref="E12" r:id="rId20" xr:uid="{F65ABEA9-7C43-40FB-A944-B5E597E270B2}"/>
+    <hyperlink ref="E25" r:id="rId21" xr:uid="{23F7F931-CEB3-4E37-BFF8-C6F7E8340A87}"/>
+    <hyperlink ref="E28" r:id="rId22" xr:uid="{16B9406D-0A2B-4F03-AF96-53E85827ED04}"/>
+    <hyperlink ref="E27" r:id="rId23" xr:uid="{C486A022-CC51-4AEF-8564-3B9A9294D204}"/>
+    <hyperlink ref="E16" r:id="rId24" xr:uid="{2FC3AC71-41BF-4D06-A20C-0E9E9A8991E2}"/>
+    <hyperlink ref="E8" r:id="rId25" xr:uid="{1CBAA84E-0243-43FF-BF9D-DF74F5D1E837}"/>
+    <hyperlink ref="E30" r:id="rId26" xr:uid="{72D0AEA4-4F7C-466C-8466-37BFE621C4FF}"/>
+    <hyperlink ref="E18" r:id="rId27" xr:uid="{A4B9DEB5-9461-463C-B68D-455F9257BEFC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsonrcc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8616DBDD-E89B-4BAA-9784-380A59C4C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C219233A-0957-4764-AE2E-5845DCB396EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>RKFox</t>
   </si>
@@ -74,27 +74,9 @@
     <t>link</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/HANTAROGAMER/games</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/GUERDE/games</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/RKFox/games</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/jukinha</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/lvx9ene8</t>
-  </si>
-  <si>
     <t>Zonorato</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/Pesaac</t>
-  </si>
-  <si>
     <t>Renan</t>
   </si>
   <si>
@@ -113,27 +95,15 @@
     <t>Gustavo</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/sccp_gu</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/thekrk420</t>
-  </si>
-  <si>
     <t>Marcus</t>
   </si>
   <si>
     <t>Orias Régis</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/Regis</t>
-  </si>
-  <si>
     <t>Rogério Imai</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/MitoBR</t>
-  </si>
-  <si>
     <t>607ba063fef5b1001a278047</t>
   </si>
   <si>
@@ -152,18 +122,9 @@
     <t>Fábio HK</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/larjauxv</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/ricardomann</t>
-  </si>
-  <si>
     <t>Ricardo</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/Dyegolimax</t>
-  </si>
-  <si>
     <t>637c24d32bc15392f36cb7d3</t>
   </si>
   <si>
@@ -179,12 +140,6 @@
     <t>Hugo Matos</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/BabyTux69</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/kc30bi28</t>
-  </si>
-  <si>
     <t>Lil Taro</t>
   </si>
   <si>
@@ -194,9 +149,6 @@
     <t>Jonathan Soares</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/lyamecmn</t>
-  </si>
-  <si>
     <t>6689b328679fcd0d46f06b1b</t>
   </si>
   <si>
@@ -206,21 +158,12 @@
     <t>Terráqueo</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/terraqueo</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/jzlfzveq</t>
-  </si>
-  <si>
     <t>Lion Fera</t>
   </si>
   <si>
     <t>5b456fbf4c0cfe0013fec57e</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/lkr7fomr</t>
-  </si>
-  <si>
     <t>64c7fd88d5e874c8f5a00a07</t>
   </si>
   <si>
@@ -230,15 +173,9 @@
     <t>ZeraTAL</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/ZeraTAL</t>
-  </si>
-  <si>
     <t>623dfbf9584b270011716c7d</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/kzugpfwl</t>
-  </si>
-  <si>
     <t>BillyTKD</t>
   </si>
   <si>
@@ -251,21 +188,12 @@
     <t>655d47c4196526c7c27a44b0</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/Walljack</t>
-  </si>
-  <si>
-    <t>https://rollercoin.com/p/JHOWBR21</t>
-  </si>
-  <si>
     <t>Jhow</t>
   </si>
   <si>
     <t>6644084c20155f520d9877cb</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/kl6yb7ip</t>
-  </si>
-  <si>
     <t>LeoDGyn</t>
   </si>
   <si>
@@ -275,15 +203,9 @@
     <t>Gon Sotans</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/lithrrgz</t>
-  </si>
-  <si>
     <t>6487ab9f2b120de602eabfb1</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/kkxb6fy2</t>
-  </si>
-  <si>
     <t>Axel</t>
   </si>
   <si>
@@ -293,44 +215,110 @@
     <t>PUDIMZINHO</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/lg9p91px</t>
-  </si>
-  <si>
     <t>6432faab10e5731e1f00ad18</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/YesoGengo</t>
-  </si>
-  <si>
     <t>Yarey</t>
   </si>
   <si>
+    <t>YesoGengo</t>
+  </si>
+  <si>
     <t>6095fca68a19d000196923bf</t>
   </si>
   <si>
     <t>Rafael Braga</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/ksc25irv</t>
-  </si>
-  <si>
     <t>6117fe5efc41af003a67eb8f</t>
   </si>
   <si>
     <t>Julio Barboza</t>
   </si>
   <si>
-    <t>https://rollercoin.com/p/SidFillips</t>
-  </si>
-  <si>
     <t>6116f40168427b0029d5580f</t>
+  </si>
+  <si>
+    <t>MitoBR</t>
+  </si>
+  <si>
+    <t>BabyTux69</t>
+  </si>
+  <si>
+    <t>kzugpfwl</t>
+  </si>
+  <si>
+    <t>Walljack</t>
+  </si>
+  <si>
+    <t>jzlfzveq</t>
+  </si>
+  <si>
+    <t>larjauxv</t>
+  </si>
+  <si>
+    <t>JHOWBR21</t>
+  </si>
+  <si>
+    <t>ricardomann</t>
+  </si>
+  <si>
+    <t>jukinha</t>
+  </si>
+  <si>
+    <t>lg9p91px</t>
+  </si>
+  <si>
+    <t>terraqueo</t>
+  </si>
+  <si>
+    <t>SidFillips</t>
+  </si>
+  <si>
+    <t>lkr7fomr</t>
+  </si>
+  <si>
+    <t>thekrk420</t>
+  </si>
+  <si>
+    <t>lvx9ene8</t>
+  </si>
+  <si>
+    <t>Dyegolimax</t>
+  </si>
+  <si>
+    <t>Pesaac</t>
+  </si>
+  <si>
+    <t>sccp_gu</t>
+  </si>
+  <si>
+    <t>kl6yb7ip</t>
+  </si>
+  <si>
+    <t>Regis</t>
+  </si>
+  <si>
+    <t>kkxb6fy2</t>
+  </si>
+  <si>
+    <t>lithrrgz</t>
+  </si>
+  <si>
+    <t>kc30bi28</t>
+  </si>
+  <si>
+    <t>ksc25irv</t>
+  </si>
+  <si>
+    <t>lyamecmn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,14 +330,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -369,11 +349,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -382,10 +361,8 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,13 +698,14 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -749,10 +727,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>2670005915.8315001</v>
@@ -761,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -778,15 +756,15 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>2118954027</v>
@@ -795,15 +773,15 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>1647127516</v>
@@ -812,15 +790,15 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>1209788980</v>
@@ -829,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -846,15 +824,15 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2">
         <v>972672480</v>
@@ -862,16 +840,16 @@
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>86</v>
+      <c r="E8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <v>643147685</v>
@@ -880,15 +858,15 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>607818423</v>
@@ -897,15 +875,15 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>448866366</v>
@@ -914,15 +892,15 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
         <v>290757765</v>
@@ -931,15 +909,15 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>252660993</v>
@@ -948,15 +926,15 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>237165911</v>
@@ -965,7 +943,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -982,15 +960,15 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2">
         <v>138229255</v>
@@ -999,15 +977,15 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>115521682</v>
@@ -1016,15 +994,15 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2">
         <v>110472005</v>
@@ -1032,16 +1010,16 @@
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>93</v>
+      <c r="E18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>100338928</v>
@@ -1050,15 +1028,15 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>100111524</v>
@@ -1067,15 +1045,15 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
         <v>63548766</v>
@@ -1084,15 +1062,15 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
         <v>59653070</v>
@@ -1101,15 +1079,15 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <v>56996640</v>
@@ -1118,15 +1096,15 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>51573653</v>
@@ -1135,15 +1113,15 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2">
         <v>51019914</v>
@@ -1152,15 +1130,15 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>45142346</v>
@@ -1169,15 +1147,15 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2">
         <v>29984383</v>
@@ -1186,15 +1164,15 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2">
         <v>28041177</v>
@@ -1203,15 +1181,15 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2">
         <v>21145194</v>
@@ -1220,15 +1198,15 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2">
         <v>7756768</v>
@@ -1236,16 +1214,16 @@
       <c r="D30">
         <v>29</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>90</v>
+      <c r="E30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2">
         <v>3282905</v>
@@ -1253,8 +1231,8 @@
       <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>51</v>
+      <c r="E31" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1263,36 +1241,7 @@
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{44835B53-EFC9-4202-B5C5-EE75D3CA218C}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{1EBD1B13-FE16-43D7-83CE-E25E0A0FC44E}"/>
-    <hyperlink ref="E23" r:id="rId3" xr:uid="{365D3559-1AD7-4834-9CAE-A5AB9A9A0562}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{D3E46E19-F27D-4EDD-B11B-603ECA48393C}"/>
-    <hyperlink ref="E20" r:id="rId5" xr:uid="{D4037A22-B0B5-4894-BB2D-5D0ADA848B33}"/>
-    <hyperlink ref="E26" r:id="rId6" xr:uid="{0119A0E3-1335-41B7-B26C-E38F48735B8E}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{575C42A1-38D8-4302-83A0-86ABCE01846A}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{FBA49778-F2E1-4E06-A86F-62981848A032}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{2F1D4426-1026-4E2A-9E67-BD88274F6AF3}"/>
-    <hyperlink ref="E22" r:id="rId10" xr:uid="{E68F23ED-F8C9-4F1E-BE3A-80BDAAE822D1}"/>
-    <hyperlink ref="E4" r:id="rId11" xr:uid="{9D84939E-A030-4BD5-A186-B88692540CC4}"/>
-    <hyperlink ref="E29" r:id="rId12" xr:uid="{1EFE5101-DC7C-4042-9438-D3F7647201A8}"/>
-    <hyperlink ref="E31" r:id="rId13" xr:uid="{5F96A565-C437-43DF-837E-41235AEC3776}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{A8E21BEE-8020-4B11-A011-E617CEB30C0C}"/>
-    <hyperlink ref="E10" r:id="rId15" xr:uid="{FBCFAC93-3D00-4583-AF62-25FD81E855E7}"/>
-    <hyperlink ref="E19" r:id="rId16" xr:uid="{FF6FC1CF-97F1-4192-A0D4-F40264CF7B09}"/>
-    <hyperlink ref="E6" r:id="rId17" xr:uid="{E2BF2405-CDEE-4E9F-84EC-51364C1E6B90}"/>
-    <hyperlink ref="E5" r:id="rId18" xr:uid="{83193373-F91A-4255-969C-F7B114D497A5}"/>
-    <hyperlink ref="E9" r:id="rId19" xr:uid="{9011B9D7-B468-4F84-85A5-DEB5B4F6E17A}"/>
-    <hyperlink ref="E12" r:id="rId20" xr:uid="{F65ABEA9-7C43-40FB-A944-B5E597E270B2}"/>
-    <hyperlink ref="E25" r:id="rId21" xr:uid="{23F7F931-CEB3-4E37-BFF8-C6F7E8340A87}"/>
-    <hyperlink ref="E28" r:id="rId22" xr:uid="{16B9406D-0A2B-4F03-AF96-53E85827ED04}"/>
-    <hyperlink ref="E27" r:id="rId23" xr:uid="{C486A022-CC51-4AEF-8564-3B9A9294D204}"/>
-    <hyperlink ref="E16" r:id="rId24" xr:uid="{2FC3AC71-41BF-4D06-A20C-0E9E9A8991E2}"/>
-    <hyperlink ref="E8" r:id="rId25" xr:uid="{1CBAA84E-0243-43FF-BF9D-DF74F5D1E837}"/>
-    <hyperlink ref="E30" r:id="rId26" xr:uid="{72D0AEA4-4F7C-466C-8466-37BFE621C4FF}"/>
-    <hyperlink ref="E18" r:id="rId27" xr:uid="{A4B9DEB5-9461-463C-B68D-455F9257BEFC}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsonrcc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C219233A-0957-4764-AE2E-5845DCB396EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F054A331-6A53-4DE4-A413-77E68ECABCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>RKFox</t>
   </si>
@@ -312,6 +312,24 @@
   </si>
   <si>
     <t>lyamecmn</t>
+  </si>
+  <si>
+    <t>Hugo Menezes</t>
+  </si>
+  <si>
+    <t>yokko</t>
+  </si>
+  <si>
+    <t>62e828043bcdc2d82492325d</t>
+  </si>
+  <si>
+    <t>Rafael Manthy</t>
+  </si>
+  <si>
+    <t>manthy</t>
+  </si>
+  <si>
+    <t>65cdf66809b03f95ead3f9d2</t>
   </si>
 </sst>
 </file>
@@ -695,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -879,365 +897,399 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
+      <c r="A11" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2">
-        <v>448866366</v>
+        <v>594960453</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>290757765</v>
+        <v>448866366</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2">
-        <v>252660993</v>
+        <v>412040603</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2">
-        <v>237165911</v>
+        <v>290757765</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>6</v>
+      <c r="A15" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>211681494</v>
+        <v>252660993</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>138229255</v>
+        <v>237165911</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
+      <c r="A17" t="s">
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>115521682</v>
+        <v>211681494</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="2">
-        <v>110472005</v>
+        <v>138229255</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>100338928</v>
+        <v>115521682</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2">
-        <v>100111524</v>
+        <v>110472005</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>63548766</v>
+        <v>100338928</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>59653070</v>
+        <v>100111524</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>56996640</v>
+        <v>63548766</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>51573653</v>
+        <v>59653070</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="2">
-        <v>51019914</v>
+        <v>56996640</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>45142346</v>
+        <v>51573653</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="2">
-        <v>29984383</v>
+        <v>51019914</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
-        <v>28041177</v>
+        <v>45142346</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
+      <c r="A29" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2">
-        <v>21145194</v>
+        <v>29984383</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2">
-        <v>7756768</v>
+        <v>28041177</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2">
-        <v>3282905</v>
+        <v>21145194</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7756768</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3282905</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsonrcc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F054A331-6A53-4DE4-A413-77E68ECABCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2354407E-B021-41D0-A358-FAE84F7C92E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>RKFox</t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>65cdf66809b03f95ead3f9d2</t>
+  </si>
+  <si>
+    <t>kvlslck9</t>
+  </si>
+  <si>
+    <t>Fellype</t>
+  </si>
+  <si>
+    <t>61849ec5bee39a0026d534e7</t>
   </si>
 </sst>
 </file>
@@ -713,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1203,93 +1212,110 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
+      <c r="A29" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2">
-        <v>29984383</v>
+        <v>34957735</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>54</v>
+      <c r="A30" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2">
-        <v>28041177</v>
+        <v>29984383</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2">
-        <v>21145194</v>
+        <v>28041177</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2">
-        <v>7756768</v>
+        <v>21145194</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2">
-        <v>3282905</v>
+        <v>7756768</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3282905</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsonrcc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2354407E-B021-41D0-A358-FAE84F7C92E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8F4178-B34C-4FFA-8380-4EFBACFC1BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$1</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>RKFox</t>
   </si>
@@ -305,9 +306,6 @@
     <t>lithrrgz</t>
   </si>
   <si>
-    <t>kc30bi28</t>
-  </si>
-  <si>
     <t>ksc25irv</t>
   </si>
   <si>
@@ -339,13 +337,22 @@
   </si>
   <si>
     <t>61849ec5bee39a0026d534e7</t>
+  </si>
+  <si>
+    <t>PREENCHA OS LINKS AQUI</t>
+  </si>
+  <si>
+    <t>IDs</t>
+  </si>
+  <si>
+    <t>kz30bi28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +365,22 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -375,11 +398,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -388,6 +448,16 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,6 +473,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="[0]!GetAvatarID">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97497A05-635E-251F-EA00-DBB661BFAF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="723900"/>
+          <a:ext cx="876300" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,17 +850,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -760,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>2670005915.8315001</v>
+        <v>2793930218.5187998</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -770,37 +899,37 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>2339240926</v>
+        <v>2368073762.1492004</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
       <c r="C4" s="2">
-        <v>2118954027</v>
+        <v>2366600967.7055998</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -811,7 +940,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>1647127516</v>
+        <v>1647127516.8207998</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -828,7 +957,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="2">
-        <v>1209788980</v>
+        <v>1212216005.2866001</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -845,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1138443110</v>
+        <v>1154401665.9740002</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -862,7 +991,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="2">
-        <v>972672480</v>
+        <v>972672480.65600002</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -879,7 +1008,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="2">
-        <v>643147685</v>
+        <v>651088371.65059996</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -889,37 +1018,37 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
+      <c r="A10" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2">
-        <v>607818423</v>
+        <v>595052948.6638</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>93</v>
+      <c r="A11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
-        <v>594960453</v>
+        <v>585114087</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -930,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>448866366</v>
+        <v>451543094.78079998</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -941,19 +1070,19 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2">
-        <v>412040603</v>
+        <v>412040603.34990001</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -964,7 +1093,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="2">
-        <v>290757765</v>
+        <v>290818368.31150001</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -981,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>252660993</v>
+        <v>253485362.1494</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -998,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>237165911</v>
+        <v>237021490.28759998</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1015,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>211681494</v>
+        <v>208863532.699</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1032,7 +1161,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="2">
-        <v>138229255</v>
+        <v>138189094.18239999</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1049,7 +1178,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>115521682</v>
+        <v>115311245.6735</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1066,7 +1195,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="2">
-        <v>110472005</v>
+        <v>110667668.148</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1083,7 +1212,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>100338928</v>
+        <v>104651252.01199999</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1100,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>100111524</v>
+        <v>103455804.0702</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1117,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>63548766</v>
+        <v>68819366.510499999</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1134,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>59653070</v>
+        <v>56277042.269000001</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1151,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="2">
-        <v>56996640</v>
+        <v>55056976.885299996</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1162,36 +1291,36 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="2">
-        <v>51573653</v>
+        <v>53892509.859999999</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>51019914</v>
+        <v>51584533.0995</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1202,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="2">
-        <v>45142346</v>
+        <v>45815633.287599996</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1213,53 +1342,53 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2">
-        <v>34957735</v>
+        <v>34956897.581299998</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>56</v>
+      <c r="A30" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2">
-        <v>29984383</v>
+        <v>32619027.307599999</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>54</v>
+      <c r="A31" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2">
-        <v>28041177</v>
+        <v>29984383.891199999</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1270,13 +1399,13 @@
         <v>33</v>
       </c>
       <c r="C32" s="2">
-        <v>21145194</v>
+        <v>20835569.276799999</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1287,13 +1416,13 @@
         <v>62</v>
       </c>
       <c r="C33" s="2">
-        <v>7756768</v>
+        <v>7778998.9690000005</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1304,13 +1433,13 @@
         <v>35</v>
       </c>
       <c r="C34" s="2">
-        <v>3282905</v>
+        <v>3252579.2659999998</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1322,4 +1451,73 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8349D9A4-C7F5-4CA7-A418-7D86913BCD64}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="21">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" ht="21">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="21">
+      <c r="A5" s="9"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="21">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="21">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="21">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="21">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="21">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="21">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8F4178-B34C-4FFA-8380-4EFBACFC1BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6190393-A3A7-4080-BA36-85014BA11DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -854,7 +854,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -889,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>2793930218.5187998</v>
+        <v>2779715780.1971998</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>2368073762.1492004</v>
+        <v>2364740766.4398003</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>2366600967.7055998</v>
+        <v>2354120786.6111999</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -940,7 +940,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>1647127516.8207998</v>
+        <v>1647063840.4191999</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -957,7 +957,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="2">
-        <v>1212216005.2866001</v>
+        <v>1202672016.6792002</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1154401665.9740002</v>
+        <v>1153129978.0010002</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -991,7 +991,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="2">
-        <v>972672480.65600002</v>
+        <v>968327492.69599998</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1008,7 +1008,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="2">
-        <v>651088371.65059996</v>
+        <v>648955510.75940001</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1025,7 +1025,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="2">
-        <v>595052948.6638</v>
+        <v>590539773.57160008</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1042,7 +1042,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="2">
-        <v>585114087</v>
+        <v>579670695.75</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1059,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>451543094.78079998</v>
+        <v>450714236.7712</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1076,7 +1076,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="2">
-        <v>412040603.34990001</v>
+        <v>411764926.16729999</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1093,7 +1093,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="2">
-        <v>290818368.31150001</v>
+        <v>289204784.35119998</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>253485362.1494</v>
+        <v>252411594.55039999</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>237021490.28759998</v>
+        <v>233891214.64499998</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>208863532.699</v>
+        <v>205750999.59819999</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1161,7 +1161,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="2">
-        <v>138189094.18239999</v>
+        <v>138072167.338</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1178,7 +1178,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>115311245.6735</v>
+        <v>114976184.516</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1195,7 +1195,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="2">
-        <v>110667668.148</v>
+        <v>108158853.3408</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1212,7 +1212,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>104651252.01199999</v>
+        <v>103098592.90099999</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1229,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>103455804.0702</v>
+        <v>102258845.814</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1246,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>68819366.510499999</v>
+        <v>66382476.8719</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1263,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>56277042.269000001</v>
+        <v>56256615.114200003</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1280,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="2">
-        <v>55056976.885299996</v>
+        <v>53401230.173500001</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1297,7 +1297,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="2">
-        <v>53892509.859999999</v>
+        <v>52439319.640000001</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1314,7 +1314,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>51584533.0995</v>
+        <v>51238979.598899998</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="2">
-        <v>45815633.287599996</v>
+        <v>45036484.104999997</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1348,7 +1348,7 @@
         <v>97</v>
       </c>
       <c r="C29" s="2">
-        <v>34956897.581299998</v>
+        <v>33605904.375500001</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1365,7 +1365,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="2">
-        <v>32619027.307599999</v>
+        <v>31856096.148400001</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1382,7 +1382,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="2">
-        <v>29984383.891199999</v>
+        <v>29982580.704</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1399,7 +1399,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="2">
-        <v>20835569.276799999</v>
+        <v>20157133.417599998</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1416,7 +1416,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="2">
-        <v>7778998.9690000005</v>
+        <v>7540281.0574000003</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1433,7 +1433,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="2">
-        <v>3252579.2659999998</v>
+        <v>2841504.14</v>
       </c>
       <c r="D34">
         <v>33</v>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6190393-A3A7-4080-BA36-85014BA11DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDF36F9-46F5-463D-B43C-6A5588B58EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="6480" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>RKFox</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>kz30bi28</t>
+  </si>
+  <si>
+    <t>62f6a9a38f0594d1cedf63bc</t>
+  </si>
+  <si>
+    <t>Carlos Salomão</t>
+  </si>
+  <si>
+    <t>l6qv2mk6</t>
   </si>
 </sst>
 </file>
@@ -851,10 +860,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E34"/>
+      <selection activeCell="A2" sqref="A2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -889,7 +898,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>2779715780.1971998</v>
+        <v>2779715780</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -906,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>2364740766.4398003</v>
+        <v>2364740766</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -923,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>2354120786.6111999</v>
+        <v>2354120787</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -940,7 +949,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>1647063840.4191999</v>
+        <v>1647063840</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -957,7 +966,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="2">
-        <v>1202672016.6792002</v>
+        <v>1202672017</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -974,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1153129978.0010002</v>
+        <v>1153129978</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -991,7 +1000,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="2">
-        <v>968327492.69599998</v>
+        <v>968327492.70000005</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1008,7 +1017,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="2">
-        <v>648955510.75940001</v>
+        <v>648955510.79999995</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1025,7 +1034,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="2">
-        <v>590539773.57160008</v>
+        <v>590539773.60000002</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1042,7 +1051,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="2">
-        <v>579670695.75</v>
+        <v>579670695.79999995</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1059,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>450714236.7712</v>
+        <v>450714236.80000001</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1076,7 +1085,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="2">
-        <v>411764926.16729999</v>
+        <v>411764926.19999999</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1087,358 +1096,375 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2">
-        <v>289204784.35119998</v>
+        <v>370711107.10000002</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2">
-        <v>252411594.55039999</v>
+        <v>289204784.39999998</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2">
-        <v>233891214.64499998</v>
+        <v>252411594.59999999</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>205750999.59819999</v>
+        <v>233891214.59999999</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>138072167.338</v>
+        <v>205750999.59999999</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2">
-        <v>114976184.516</v>
+        <v>138072167.30000001</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
-        <v>108158853.3408</v>
+        <v>114976184.5</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2">
-        <v>103098592.90099999</v>
+        <v>108158853.3</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
-        <v>102258845.814</v>
+        <v>103098592.90000001</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
-        <v>66382476.8719</v>
+        <v>102258845.8</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>56256615.114200003</v>
+        <v>66382476.869999997</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>53401230.173500001</v>
+        <v>56256615.109999999</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
-        <v>52439319.640000001</v>
+        <v>53401230.170000002</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2">
-        <v>51238979.598899998</v>
+        <v>52439319.640000001</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45036484.104999997</v>
+        <v>51238979.600000001</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
-        <v>33605904.375500001</v>
+        <v>45036484.109999999</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2">
-        <v>31856096.148400001</v>
+        <v>33605904.380000003</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2">
-        <v>29982580.704</v>
+        <v>31856096.149999999</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
+      <c r="A32" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2">
-        <v>20157133.417599998</v>
+        <v>29982580.699999999</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>7540281.0574000003</v>
+        <v>20157133.420000002</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2">
-        <v>2841504.14</v>
+        <v>7540281.057</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>2841504.14</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
         <v>89</v>
       </c>
     </row>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDF36F9-46F5-463D-B43C-6A5588B58EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF37E0-2CF6-4549-AAA4-E0CA34ACA182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="7170" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>RKFox</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>l6qv2mk6</t>
+  </si>
+  <si>
+    <t>61ec9d04b499da001220f1f3</t>
+  </si>
+  <si>
+    <t>Robson</t>
+  </si>
+  <si>
+    <t>kyqi8rx2</t>
+  </si>
+  <si>
+    <t>5fe161d0c8e049004bfde7a1</t>
+  </si>
+  <si>
+    <t>Pedro André</t>
+  </si>
+  <si>
+    <t>kizekp4s</t>
   </si>
 </sst>
 </file>
@@ -860,10 +878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>2779715780</v>
+        <v>2779715780.1971998</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -915,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>2364740766</v>
+        <v>2364740766.4398003</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -932,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>2354120787</v>
+        <v>2354120786.6111999</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -949,7 +967,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>1647063840</v>
+        <v>1647063840.4191999</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -966,7 +984,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="2">
-        <v>1202672017</v>
+        <v>1202672016.6792002</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -983,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1153129978</v>
+        <v>1153129978.0010002</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1000,7 +1018,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="2">
-        <v>968327492.70000005</v>
+        <v>968327492.69599998</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1017,7 +1035,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="2">
-        <v>648955510.79999995</v>
+        <v>648955510.75940001</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1034,7 +1052,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="2">
-        <v>590539773.60000002</v>
+        <v>590539773.57160008</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1051,7 +1069,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="2">
-        <v>579670695.79999995</v>
+        <v>579670695.75</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1068,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>450714236.80000001</v>
+        <v>450714236.7712</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1085,7 +1103,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="2">
-        <v>411764926.19999999</v>
+        <v>411764926.16729999</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1095,14 +1113,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="2">
-        <v>370711107.10000002</v>
+      <c r="C14">
+        <v>370711107.0995</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1119,7 +1137,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="2">
-        <v>289204784.39999998</v>
+        <v>289204784.35119998</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1136,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="2">
-        <v>252411594.59999999</v>
+        <v>252411594.55039999</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1147,325 +1165,359 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2">
-        <v>233891214.59999999</v>
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>251229137.727</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="2">
-        <v>205750999.59999999</v>
+        <v>233891214.64499998</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
       <c r="C19" s="2">
-        <v>138072167.30000001</v>
+        <v>205750999.59819999</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="2">
-        <v>114976184.5</v>
+        <v>138072167.338</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="2">
-        <v>108158853.3</v>
+        <v>114976184.516</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2">
-        <v>103098592.90000001</v>
+        <v>108158853.3408</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="2">
-        <v>102258845.8</v>
+        <v>103098592.90099999</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
-        <v>66382476.869999997</v>
+        <v>102258845.814</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>56256615.109999999</v>
+        <v>66382476.8719</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>53401230.170000002</v>
+        <v>56256615.114200003</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
-        <v>52439319.640000001</v>
+        <v>53401230.173500001</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="2">
-        <v>51238979.600000001</v>
+        <v>52439319.640000001</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45036484.109999999</v>
+        <v>51238979.598899998</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2">
-        <v>33605904.380000003</v>
+        <v>45036484.104999997</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>54</v>
+      <c r="A31" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2">
-        <v>31856096.149999999</v>
+        <v>33605904.375500001</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>56</v>
+      <c r="A32" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2">
-        <v>29982580.699999999</v>
+        <v>31856096.148400001</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
+      <c r="A33" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2">
-        <v>20157133.420000002</v>
+        <v>29982580.704</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>7540281.057</v>
+        <v>20157133.417599998</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>36</v>
+      <c r="A35" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>2841504.14</v>
+        <v>62</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7540281.0574000003</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2841504.14</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37">
+        <v>244857.01500000001</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF37E0-2CF6-4549-AAA4-E0CA34ACA182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316ABAE1-68D4-408C-9701-881E70B54464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7170" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$1</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>RKFox</t>
   </si>
@@ -219,9 +218,6 @@
     <t>6432faab10e5731e1f00ad18</t>
   </si>
   <si>
-    <t>Yarey</t>
-  </si>
-  <si>
     <t>YesoGengo</t>
   </si>
   <si>
@@ -339,12 +335,6 @@
     <t>61849ec5bee39a0026d534e7</t>
   </si>
   <si>
-    <t>PREENCHA OS LINKS AQUI</t>
-  </si>
-  <si>
-    <t>IDs</t>
-  </si>
-  <si>
     <t>kz30bi28</t>
   </si>
   <si>
@@ -373,13 +363,61 @@
   </si>
   <si>
     <t>kizekp4s</t>
+  </si>
+  <si>
+    <t>Yeso</t>
+  </si>
+  <si>
+    <t>6254b50e908885001969cee0</t>
+  </si>
+  <si>
+    <t>Rafael Rodrigues</t>
+  </si>
+  <si>
+    <t>Forka</t>
+  </si>
+  <si>
+    <t>6277c571dc4377a36f2467f7</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>lima3225</t>
+  </si>
+  <si>
+    <t>6626ea99ec2b9cd99adb14dc</t>
+  </si>
+  <si>
+    <t>Danilson</t>
+  </si>
+  <si>
+    <t>lvbk0tvy</t>
+  </si>
+  <si>
+    <t>61f045c16041c5006f908257</t>
+  </si>
+  <si>
+    <t>Israel Lima</t>
+  </si>
+  <si>
+    <t>RAEL</t>
+  </si>
+  <si>
+    <t>65f1ef5b340d234a4520315e</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>ltq4rqrn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,22 +430,6 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -417,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -425,48 +447,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -475,16 +460,6 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,64 +475,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="[0]!GetAvatarID">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97497A05-635E-251F-EA00-DBB661BFAF3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857750" y="723900"/>
-          <a:ext cx="876300" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,10 +795,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -939,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -973,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1012,10 +929,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2">
         <v>968327492.69599998</v>
@@ -1024,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1041,15 +958,15 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2">
         <v>590539773.57160008</v>
@@ -1058,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1075,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1092,15 +1009,15 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2">
         <v>411764926.16729999</v>
@@ -1109,415 +1026,500 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C14">
+        <v>387594466.73540002</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
         <v>370711107.0995</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16">
+        <v>308832078.917</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C17" s="2">
         <v>289204784.35119998</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2">
-        <v>252411594.55039999</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17">
-        <v>251229137.727</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>233891214.64499998</v>
+        <v>252411594.55039999</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19">
+        <v>251229137.727</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>233891214.64499998</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <v>205750999.59819999</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22">
+        <v>177262771.41</v>
+      </c>
+      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23">
+        <v>153459145.93000001</v>
+      </c>
+      <c r="D23">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C24" s="2">
         <v>138072167.338</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2">
-        <v>114976184.516</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2">
-        <v>108158853.3408</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2">
-        <v>103098592.90099999</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2">
-        <v>102258845.814</v>
-      </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
-        <v>66382476.8719</v>
+        <v>114976184.516</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2">
-        <v>56256615.114200003</v>
+        <v>108158853.3408</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C27" s="2">
-        <v>53401230.173500001</v>
+        <v>103098592.90099999</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
       </c>
       <c r="C28" s="2">
-        <v>52439319.640000001</v>
+        <v>102258845.814</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
+      <c r="A29" t="s">
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="2">
-        <v>51238979.598899998</v>
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>90459596.880799994</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>45036484.104999997</v>
+        <v>66382476.8719</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
-        <v>33605904.375500001</v>
+        <v>56256615.114200003</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
-        <v>31856096.148400001</v>
+        <v>53401230.173500001</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C33" s="2">
-        <v>29982580.704</v>
+        <v>52439319.640000001</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>20157133.417599998</v>
+        <v>51238979.598899998</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2">
-        <v>7540281.0574000003</v>
+        <v>45036484.104999997</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="2">
+        <v>33605904.375500001</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="2">
+        <v>31856096.148400001</v>
+      </c>
+      <c r="D37">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2">
+        <v>29982580.704</v>
+      </c>
+      <c r="D38">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20157133.417599998</v>
+      </c>
+      <c r="D39">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="2">
+        <v>7540281.0574000003</v>
+      </c>
+      <c r="D40">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C41" s="2">
         <v>2841504.14</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37">
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42">
         <v>244857.01500000001</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>36</v>
       </c>
-      <c r="E37" t="s">
-        <v>110</v>
+      <c r="E42" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1529,73 +1531,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8349D9A4-C7F5-4CA7-A418-7D86913BCD64}">
-  <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21">
-      <c r="A2" s="8"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" ht="21">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" ht="21">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="21">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="21">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="21">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="21">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="21">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" ht="21">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="21">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316ABAE1-68D4-408C-9701-881E70B54464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136E1CCF-1738-4E39-9CDD-1E30F29D54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="2265" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="6825" yWindow="1920" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E42"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1040,7 +1040,7 @@
         <v>387594466.73540002</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>111</v>
@@ -1057,7 +1057,7 @@
         <v>370711107.0995</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>101</v>
@@ -1074,7 +1074,7 @@
         <v>308832078.917</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>114</v>
@@ -1091,7 +1091,7 @@
         <v>289204784.35119998</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
@@ -1108,7 +1108,7 @@
         <v>252411594.55039999</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
@@ -1125,7 +1125,7 @@
         <v>251229137.727</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>104</v>
@@ -1142,7 +1142,7 @@
         <v>233891214.64499998</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
@@ -1159,7 +1159,7 @@
         <v>205750999.59819999</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1176,7 +1176,7 @@
         <v>177262771.41</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
         <v>117</v>
@@ -1193,7 +1193,7 @@
         <v>153459145.93000001</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
         <v>120</v>
@@ -1210,7 +1210,7 @@
         <v>138072167.338</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
         <v>74</v>
@@ -1227,7 +1227,7 @@
         <v>114976184.516</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -1244,7 +1244,7 @@
         <v>108158853.3408</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1261,7 +1261,7 @@
         <v>103098592.90099999</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>77</v>
@@ -1278,7 +1278,7 @@
         <v>102258845.814</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
         <v>78</v>
@@ -1295,7 +1295,7 @@
         <v>90459596.880799994</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>123</v>
@@ -1312,7 +1312,7 @@
         <v>66382476.8719</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>79</v>
@@ -1329,7 +1329,7 @@
         <v>56256615.114200003</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>80</v>
@@ -1346,7 +1346,7 @@
         <v>53401230.173500001</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
         <v>81</v>
@@ -1363,7 +1363,7 @@
         <v>52439319.640000001</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>83</v>
@@ -1380,7 +1380,7 @@
         <v>51238979.598899998</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>82</v>
@@ -1397,7 +1397,7 @@
         <v>45036484.104999997</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>84</v>
@@ -1414,7 +1414,7 @@
         <v>33605904.375500001</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
         <v>95</v>
@@ -1431,7 +1431,7 @@
         <v>31856096.148400001</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
         <v>86</v>
@@ -1448,7 +1448,7 @@
         <v>29982580.704</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
         <v>85</v>
@@ -1465,7 +1465,7 @@
         <v>20157133.417599998</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
         <v>98</v>
@@ -1482,7 +1482,7 @@
         <v>7540281.0574000003</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>87</v>
@@ -1499,7 +1499,7 @@
         <v>2841504.14</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
         <v>88</v>
@@ -1516,7 +1516,7 @@
         <v>244857.01500000001</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
         <v>107</v>
@@ -1524,7 +1524,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E34">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136E1CCF-1738-4E39-9CDD-1E30F29D54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D9F192-F090-48EF-9F81-2CE69A1462EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1920" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
   <si>
     <t>RKFox</t>
   </si>
@@ -411,6 +411,24 @@
   </si>
   <si>
     <t>ltq4rqrn</t>
+  </si>
+  <si>
+    <t>61fc92022f8cc6002866c120</t>
+  </si>
+  <si>
+    <t>Life Kudalini</t>
+  </si>
+  <si>
+    <t>kz7sv0d7</t>
+  </si>
+  <si>
+    <t>626eb2be46da9a002807e173</t>
+  </si>
+  <si>
+    <t>Lucas Dias</t>
+  </si>
+  <si>
+    <t>l2nhyaun</t>
   </si>
 </sst>
 </file>
@@ -795,10 +813,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,699 +844,733 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
+      <c r="A2" t="s">
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2779715780.1971998</v>
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>3202574604.1841998</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>2364740766.4398003</v>
+        <v>2779715780.1971998</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
-        <v>2354120786.6111999</v>
+        <v>2364740766.4398003</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
       <c r="C5" s="2">
-        <v>1647063840.4191999</v>
+        <v>2354120786.6111999</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
-        <v>1202672016.6792002</v>
+        <v>1647063840.4191999</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
       <c r="C7" s="2">
-        <v>1153129978.0010002</v>
+        <v>1202672016.6792002</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
       <c r="C8" s="2">
-        <v>968327492.69599998</v>
+        <v>1153129978.0010002</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
       </c>
       <c r="C9" s="2">
-        <v>648955510.75940001</v>
+        <v>968327492.69599998</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="2">
-        <v>590539773.57160008</v>
+        <v>648955510.75940001</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
+      <c r="A11" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2">
-        <v>579670695.75</v>
+        <v>590539773.57160008</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
-        <v>450714236.7712</v>
+        <v>579670695.75</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>94</v>
+      <c r="A13" t="s">
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="2">
-        <v>411764926.16729999</v>
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>568137332.2888</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>109</v>
+      <c r="A14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14">
-        <v>387594466.73540002</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>450714236.7712</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>99</v>
+      <c r="A15" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>370711107.0995</v>
+        <v>92</v>
+      </c>
+      <c r="C15" s="2">
+        <v>411764926.16729999</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C16">
-        <v>308832078.917</v>
+        <v>387594466.73540002</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
+      <c r="A17" t="s">
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2">
-        <v>289204784.35119998</v>
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>370711107.0995</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
+      <c r="A18" t="s">
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2">
-        <v>252411594.55039999</v>
+        <v>113</v>
+      </c>
+      <c r="C18">
+        <v>308832078.917</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>102</v>
+      <c r="A19" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19">
-        <v>251229137.727</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="2">
+        <v>289204784.35119998</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>233891214.64499998</v>
+        <v>252411594.55039999</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>205750999.59819999</v>
+        <v>103</v>
+      </c>
+      <c r="C21">
+        <v>251229137.727</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A22" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22">
-        <v>177262771.41</v>
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>233891214.64499998</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23">
-        <v>153459145.93000001</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>205750999.59819999</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2">
-        <v>138072167.338</v>
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24">
+        <v>177262771.41</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>37</v>
+      <c r="A25" t="s">
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2">
-        <v>114976184.516</v>
+        <v>119</v>
+      </c>
+      <c r="C25">
+        <v>153459145.93000001</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C26" s="2">
-        <v>108158853.3408</v>
+        <v>138072167.338</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
       </c>
       <c r="C27" s="2">
-        <v>103098592.90099999</v>
+        <v>114976184.516</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2">
-        <v>102258845.814</v>
+        <v>108158853.3408</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29">
-        <v>90459596.880799994</v>
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2">
+        <v>103098592.90099999</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
-        <v>66382476.8719</v>
+        <v>102258845.814</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2">
-        <v>56256615.114200003</v>
+        <v>122</v>
+      </c>
+      <c r="C31">
+        <v>90459596.880799994</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>53401230.173500001</v>
+        <v>66382476.8719</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
       </c>
       <c r="C33" s="2">
-        <v>52439319.640000001</v>
+        <v>56256615.114200003</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2">
-        <v>51238979.598899998</v>
+        <v>53401230.173500001</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="2">
-        <v>45036484.104999997</v>
+        <v>52439319.640000001</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>33605904.375500001</v>
+        <v>51238979.598899998</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2">
-        <v>31856096.148400001</v>
+        <v>45036484.104999997</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>56</v>
+      <c r="A38" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C38" s="2">
-        <v>29982580.704</v>
+        <v>33605904.375500001</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2">
-        <v>20157133.417599998</v>
+        <v>31856096.148400001</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>62</v>
+      <c r="A40" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2">
-        <v>7540281.0574000003</v>
+        <v>29982580.704</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2">
-        <v>2841504.14</v>
+        <v>20157133.417599998</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>105</v>
+      <c r="A42" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42">
-        <v>244857.01500000001</v>
+        <v>61</v>
+      </c>
+      <c r="C42" s="2">
+        <v>7540281.0574000003</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2841504.14</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44">
+        <v>244857.01500000001</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
         <v>107</v>
       </c>
     </row>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D9F192-F090-48EF-9F81-2CE69A1462EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B5159D-38DA-4DF9-8036-CEA1B12A70D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>RKFox</t>
   </si>
@@ -429,6 +429,15 @@
   </si>
   <si>
     <t>l2nhyaun</t>
+  </si>
+  <si>
+    <t>603078cabf4cab0027323ede</t>
+  </si>
+  <si>
+    <t>Vilmar</t>
+  </si>
+  <si>
+    <t>Vilmarbernardes</t>
   </si>
 </sst>
 </file>
@@ -813,10 +822,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1507,70 +1516,87 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>34</v>
+      <c r="A41" t="s">
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="2">
-        <v>20157133.417599998</v>
+        <v>131</v>
+      </c>
+      <c r="C41">
+        <v>25837398.539000001</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2">
-        <v>7540281.0574000003</v>
+        <v>20157133.417599998</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2">
-        <v>2841504.14</v>
+        <v>7540281.0574000003</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>105</v>
+      <c r="A44" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44">
-        <v>244857.01500000001</v>
+        <v>35</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2841504.14</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45">
+        <v>244857.01500000001</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
         <v>107</v>
       </c>
     </row>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B5159D-38DA-4DF9-8036-CEA1B12A70D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74416C28-ACB7-40F7-9886-7DFCD86AB081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
   <si>
     <t>RKFox</t>
   </si>
@@ -326,9 +326,6 @@
     <t>65cdf66809b03f95ead3f9d2</t>
   </si>
   <si>
-    <t>kvlslck9</t>
-  </si>
-  <si>
     <t>Fellype</t>
   </si>
   <si>
@@ -438,6 +435,27 @@
   </si>
   <si>
     <t>Vilmarbernardes</t>
+  </si>
+  <si>
+    <t>6209bf5b2d3828001239cbd0</t>
+  </si>
+  <si>
+    <t>Daniel Ida</t>
+  </si>
+  <si>
+    <t>dplayer40</t>
+  </si>
+  <si>
+    <t>64a96ce448022304936fb2c2</t>
+  </si>
+  <si>
+    <t>Fred Schmidt</t>
+  </si>
+  <si>
+    <t>Drein</t>
+  </si>
+  <si>
+    <t>fellype</t>
   </si>
 </sst>
 </file>
@@ -822,10 +840,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -854,10 +872,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
       </c>
       <c r="C2">
         <v>3202574604.1841998</v>
@@ -866,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -976,7 +994,7 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2">
         <v>968327492.69599998</v>
@@ -1041,10 +1059,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
         <v>127</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
       </c>
       <c r="C13">
         <v>568137332.2888</v>
@@ -1053,551 +1071,585 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2">
-        <v>450714236.7712</v>
+        <v>543348026.07029998</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>411764926.16729999</v>
+        <v>450714236.7712</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C16">
-        <v>387594466.73540002</v>
+        <v>411764926.16729999</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C17">
-        <v>370711107.0995</v>
+        <v>400137711.7198</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C18">
-        <v>308832078.917</v>
+        <v>387594466.73540002</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2">
-        <v>289204784.35119998</v>
+        <v>370711107.0995</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2">
-        <v>252411594.55039999</v>
+        <v>308832078.917</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>251229137.727</v>
+        <v>289204784.35119998</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
-        <v>233891214.64499998</v>
+        <v>252411594.55039999</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2">
-        <v>205750999.59819999</v>
+        <v>251229137.727</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>177262771.41</v>
+        <v>233891214.64499998</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>153459145.93000001</v>
+        <v>205750999.59819999</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2">
-        <v>138072167.338</v>
+        <v>177262771.41</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C27" s="2">
-        <v>114976184.516</v>
+        <v>153459145.93000001</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
-        <v>108158853.3408</v>
+        <v>138072167.338</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2">
-        <v>103098592.90099999</v>
+        <v>114976184.516</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2">
-        <v>102258845.814</v>
+        <v>108158853.3408</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="C31">
-        <v>90459596.880799994</v>
+        <v>103098592.90099999</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
-        <v>66382476.8719</v>
+        <v>102258845.814</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2">
-        <v>56256615.114200003</v>
+        <v>90459596.880799994</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>53401230.173500001</v>
+        <v>66382476.8719</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2">
-        <v>52439319.640000001</v>
+        <v>56256615.114200003</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2">
-        <v>51238979.598899998</v>
+        <v>53401230.173500001</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2">
-        <v>45036484.104999997</v>
+        <v>52439319.640000001</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>33605904.375500001</v>
+        <v>51238979.598899998</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C39" s="2">
-        <v>31856096.148400001</v>
+        <v>45036484.104999997</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2">
-        <v>29982580.704</v>
+        <v>33605904.375500001</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>25837398.539000001</v>
+        <v>31856096.148400001</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2">
-        <v>20157133.417599998</v>
+        <v>29982580.704</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C43" s="2">
-        <v>7540281.0574000003</v>
+        <v>25837398.539000001</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2">
-        <v>2841504.14</v>
+        <v>20157133.417599998</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C45">
-        <v>244857.01500000001</v>
+        <v>7540281.0574000003</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>2841504.14</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47">
+        <v>244857.01500000001</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74416C28-ACB7-40F7-9886-7DFCD86AB081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B8D2E-5EBE-4EE0-B7EF-680F1CD4F42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B9A0E89-C844-4496-B098-AB62AA7CAA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
   <si>
     <t>RKFox</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>fellype</t>
+  </si>
+  <si>
+    <t>62cb56402c84e2c02605f5fb</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>HENRY</t>
   </si>
 </sst>
 </file>
@@ -840,17 +849,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35CEFC1-B3C5-47E8-B313-C5CF74631A2D}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -878,7 +889,7 @@
         <v>124</v>
       </c>
       <c r="C2">
-        <v>3202574604.1841998</v>
+        <v>3444532279.5640998</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -889,36 +900,36 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>2779715780.1971998</v>
+        <v>2983787940.1936002</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>2364740766.4398003</v>
+        <v>2891250539.1037998</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -929,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>2354120786.6111999</v>
+        <v>2601921467.9625001</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -946,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="2">
-        <v>1647063840.4191999</v>
+        <v>1990152690.5778999</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -963,7 +974,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="2">
-        <v>1202672016.6792002</v>
+        <v>1402580534.1775999</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -980,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1153129978.0010002</v>
+        <v>1323958324.221</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -997,7 +1008,7 @@
         <v>107</v>
       </c>
       <c r="C9" s="2">
-        <v>968327492.69599998</v>
+        <v>1011485021.6344</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1014,7 +1025,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="2">
-        <v>648955510.75940001</v>
+        <v>791015928.65040004</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1031,7 +1042,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="2">
-        <v>590539773.57160008</v>
+        <v>628607228.35670006</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1048,7 +1059,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="2">
-        <v>579670695.75</v>
+        <v>614865183.0898</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1065,7 +1076,7 @@
         <v>127</v>
       </c>
       <c r="C13">
-        <v>568137332.2888</v>
+        <v>583533700.31419992</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1075,14 +1086,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>132</v>
       </c>
       <c r="B14" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="2">
-        <v>543348026.07029998</v>
+      <c r="C14">
+        <v>544522892.0553</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1099,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>450714236.7712</v>
+        <v>457639161.69879997</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1109,105 +1120,105 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>94</v>
+      <c r="A16" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16">
-        <v>411764926.16729999</v>
+        <v>99</v>
+      </c>
+      <c r="C16" s="2">
+        <v>450849675.486</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C17">
-        <v>400137711.7198</v>
+        <v>420700911.00730002</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C18">
-        <v>387594466.73540002</v>
+        <v>408781335.69529998</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>98</v>
+      <c r="A19" t="s">
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="2">
-        <v>370711107.0995</v>
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>394261617.31169999</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>111</v>
+      <c r="A20" t="s">
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="2">
-        <v>308832078.917</v>
+        <v>109</v>
+      </c>
+      <c r="C20">
+        <v>390494989.58149999</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>50</v>
+      <c r="A21" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>289204784.35119998</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>345833343.39499998</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1218,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="2">
-        <v>252411594.55039999</v>
+        <v>326539733.95709997</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1229,240 +1240,240 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="2">
-        <v>251229137.727</v>
+        <v>112</v>
+      </c>
+      <c r="C23">
+        <v>319801443.25760001</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C24">
-        <v>233891214.64499998</v>
+        <v>257745409.755</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>6</v>
+      <c r="A25" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>205750999.59819999</v>
+        <v>140</v>
+      </c>
+      <c r="C25" s="2">
+        <v>253703830.2186</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="2">
-        <v>177262771.41</v>
+        <v>241821515.06999999</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>117</v>
+      <c r="A27" t="s">
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="2">
-        <v>153459145.93000001</v>
+        <v>115</v>
+      </c>
+      <c r="C27">
+        <v>185220435.55849999</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
+      <c r="A28" t="s">
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="2">
-        <v>138072167.338</v>
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>157612316.62</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
+      <c r="A29" t="s">
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2">
-        <v>114976184.516</v>
+        <v>134779860.9285</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2">
-        <v>108158853.3408</v>
+        <v>133935911.3857</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>41</v>
+      <c r="A31" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31">
-        <v>103098592.90099999</v>
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>126635264.645</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="2">
-        <v>102258845.814</v>
+        <v>119693533.6408</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
-        <v>90459596.880799994</v>
+        <v>114785845.41150001</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
+      <c r="A34" t="s">
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2">
-        <v>66382476.8719</v>
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>102561432.59099999</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
       </c>
       <c r="C35" s="2">
-        <v>56256615.114200003</v>
+        <v>91937537.813800007</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>53401230.173500001</v>
+        <v>73734687.441</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1473,7 +1484,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="2">
-        <v>52439319.640000001</v>
+        <v>59368089.345600002</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1484,98 +1495,98 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C38" s="2">
-        <v>51238979.598899998</v>
+        <v>59153909.284900002</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2">
-        <v>45036484.104999997</v>
+        <v>57614327.934</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>96</v>
+      <c r="A40" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>33605904.375500001</v>
+        <v>53041131.842299998</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>54</v>
+      <c r="A41" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41">
-        <v>31856096.148400001</v>
+        <v>19</v>
+      </c>
+      <c r="C41" s="2">
+        <v>50149726.883000001</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2">
-        <v>29982580.704</v>
+        <v>43858659.606399998</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
       </c>
       <c r="C43" s="2">
-        <v>25837398.539000001</v>
+        <v>28198724.971999999</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1585,14 +1596,14 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="2">
-        <v>20157133.417599998</v>
+      <c r="C44">
+        <v>20362497.193599999</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1602,53 +1613,70 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>62</v>
+      <c r="A45" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45">
-        <v>7540281.0574000003</v>
+        <v>55</v>
+      </c>
+      <c r="C45" s="2">
+        <v>18949434.361499999</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>36</v>
+      <c r="A46" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46">
-        <v>2841504.14</v>
+        <v>61</v>
+      </c>
+      <c r="C46" s="2">
+        <v>8692015.4945</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>104</v>
+      <c r="A47" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47">
-        <v>244857.01500000001</v>
+        <v>35</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3544060.574</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48">
+        <v>824668.91949999996</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
         <v>106</v>
       </c>
     </row>
